--- a/Code/Results/Cases/Case_3_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_165/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.187822166233104</v>
+        <v>0.9048283336185818</v>
       </c>
       <c r="C2">
-        <v>0.09468464424721645</v>
+        <v>0.1355680638631682</v>
       </c>
       <c r="D2">
-        <v>0.1052748828831795</v>
+        <v>0.1525889375752456</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9023686371519517</v>
+        <v>1.902693688906858</v>
       </c>
       <c r="G2">
-        <v>0.0008256274652614457</v>
+        <v>0.002505473217499012</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09030425658091445</v>
+        <v>0.2234386864452205</v>
       </c>
       <c r="K2">
-        <v>0.9205440397025484</v>
+        <v>0.4468790527791953</v>
       </c>
       <c r="L2">
-        <v>0.2437069475818703</v>
+        <v>0.3303546847548375</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.042294563978293</v>
+        <v>2.201099405360304</v>
       </c>
       <c r="O2">
-        <v>2.255335875690804</v>
+        <v>4.893947308165821</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.040499442938483</v>
+        <v>0.8668321265355701</v>
       </c>
       <c r="C3">
-        <v>0.09309373857474768</v>
+        <v>0.1350393194915753</v>
       </c>
       <c r="D3">
-        <v>0.09519853877228002</v>
+        <v>0.1505431398048316</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8823222109360813</v>
+        <v>1.908835776594373</v>
       </c>
       <c r="G3">
-        <v>0.0008293035270773173</v>
+        <v>0.00250794563295973</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08984019537950871</v>
+        <v>0.2244571156854427</v>
       </c>
       <c r="K3">
-        <v>0.8000337181709654</v>
+        <v>0.4130303882693624</v>
       </c>
       <c r="L3">
-        <v>0.2200275533044191</v>
+        <v>0.3255741744138874</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.088769549963182</v>
+        <v>2.221283881089278</v>
       </c>
       <c r="O3">
-        <v>2.231004149661374</v>
+        <v>4.917287170159483</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.950551833352705</v>
+        <v>0.8438494580375391</v>
       </c>
       <c r="C4">
-        <v>0.09212782157421628</v>
+        <v>0.1347176615995629</v>
       </c>
       <c r="D4">
-        <v>0.08907986248988209</v>
+        <v>0.1493430115258221</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8713618464480888</v>
+        <v>1.913412334772815</v>
       </c>
       <c r="G4">
-        <v>0.0008316393970252868</v>
+        <v>0.00250954619230731</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08966457546729956</v>
+        <v>0.2251567073599006</v>
       </c>
       <c r="K4">
-        <v>0.7262444124101251</v>
+        <v>0.3923674299748541</v>
       </c>
       <c r="L4">
-        <v>0.205676022730124</v>
+        <v>0.3227714864182047</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.11848372060477</v>
+        <v>2.234307760467949</v>
       </c>
       <c r="O4">
-        <v>2.219683451805793</v>
+        <v>4.933709342383509</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9140112183817166</v>
+        <v>0.8345718804397109</v>
       </c>
       <c r="C5">
-        <v>0.09173682941633388</v>
+        <v>0.1345873525378316</v>
       </c>
       <c r="D5">
-        <v>0.08660264326019274</v>
+        <v>0.1488681060762715</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8672216228089979</v>
+        <v>1.915480059843929</v>
       </c>
       <c r="G5">
-        <v>0.0008326113819789871</v>
+        <v>0.002510219235759086</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08961974112636639</v>
+        <v>0.2254605035722577</v>
       </c>
       <c r="K5">
-        <v>0.6962155870194806</v>
+        <v>0.3839778903645765</v>
       </c>
       <c r="L5">
-        <v>0.1998718657676974</v>
+        <v>0.3216628456813027</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.130882981243543</v>
+        <v>2.239773701771396</v>
       </c>
       <c r="O5">
-        <v>2.215946519088561</v>
+        <v>4.94092785882394</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9079501454198464</v>
+        <v>0.8330366856419289</v>
       </c>
       <c r="C6">
-        <v>0.09167206092320157</v>
+        <v>0.134565761756285</v>
       </c>
       <c r="D6">
-        <v>0.08619225336327929</v>
+        <v>0.1487901056145731</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8665534809287649</v>
+        <v>1.915835656207335</v>
       </c>
       <c r="G6">
-        <v>0.0008327740017625737</v>
+        <v>0.002510332252328501</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08961388950752891</v>
+        <v>0.2255120794557897</v>
       </c>
       <c r="K6">
-        <v>0.6912314980401106</v>
+        <v>0.3825866889657448</v>
       </c>
       <c r="L6">
-        <v>0.1989106752287597</v>
+        <v>0.3214807828869297</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.132959249458862</v>
+        <v>2.24069089808975</v>
       </c>
       <c r="O6">
-        <v>2.215377977190315</v>
+        <v>4.942158291302974</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9500585915236286</v>
+        <v>0.8437239798888356</v>
       </c>
       <c r="C7">
-        <v>0.09212253802752102</v>
+        <v>0.1347159010693701</v>
       </c>
       <c r="D7">
-        <v>0.08904638953453059</v>
+        <v>0.1493365493650529</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8713047056140297</v>
+        <v>1.913439399625389</v>
       </c>
       <c r="G7">
-        <v>0.0008316524237899748</v>
+        <v>0.002509555184877985</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08966386355224643</v>
+        <v>0.2251607286774657</v>
       </c>
       <c r="K7">
-        <v>0.7258392809939664</v>
+        <v>0.3922541603471359</v>
       </c>
       <c r="L7">
-        <v>0.2055975706936124</v>
+        <v>0.3227563991628841</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.118649772638617</v>
+        <v>2.234380833809312</v>
       </c>
       <c r="O7">
-        <v>2.219629549342955</v>
+        <v>4.933804562066015</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.136910765928832</v>
+        <v>0.8916556263171174</v>
       </c>
       <c r="C8">
-        <v>0.09413376368259918</v>
+        <v>0.135385141215238</v>
       </c>
       <c r="D8">
-        <v>0.101785796112047</v>
+        <v>0.1518719677800817</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8951689071574549</v>
+        <v>1.904644485968369</v>
       </c>
       <c r="G8">
-        <v>0.0008268788081380161</v>
+        <v>0.002506308622634304</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09012109388532963</v>
+        <v>0.2237744439504965</v>
       </c>
       <c r="K8">
-        <v>0.8789430978140729</v>
+        <v>0.4351833888030114</v>
       </c>
       <c r="L8">
-        <v>0.235501478691404</v>
+        <v>0.3286789345736452</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.058071003621562</v>
+        <v>2.207928179819423</v>
       </c>
       <c r="O8">
-        <v>2.246174373212398</v>
+        <v>4.901561086116942</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.508064554218919</v>
+        <v>0.9883763353728625</v>
       </c>
       <c r="C9">
-        <v>0.09817020457872161</v>
+        <v>0.1367206189942181</v>
       </c>
       <c r="D9">
-        <v>0.1273563991867377</v>
+        <v>0.1572853265539891</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9532744640102493</v>
+        <v>1.893777787850354</v>
       </c>
       <c r="G9">
-        <v>0.0008181285673464608</v>
+        <v>0.002500593846905722</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09192105407057483</v>
+        <v>0.2216439648287185</v>
       </c>
       <c r="K9">
-        <v>1.181318285457735</v>
+        <v>0.5203021391653522</v>
       </c>
       <c r="L9">
-        <v>0.2957775345136042</v>
+        <v>0.3413394481077887</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9488974726303763</v>
+        <v>2.161054420375386</v>
       </c>
       <c r="O9">
-        <v>2.328548478241885</v>
+        <v>4.854908595343574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.784690855718026</v>
+        <v>1.061070200840447</v>
       </c>
       <c r="C10">
-        <v>0.1012014141512836</v>
+        <v>0.1377151089274093</v>
       </c>
       <c r="D10">
-        <v>0.1465729021369953</v>
+        <v>0.1615282348475517</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.003757391336435</v>
+        <v>1.889672423477563</v>
       </c>
       <c r="G10">
-        <v>0.000812051492265447</v>
+        <v>0.002496788630525896</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09384704089698204</v>
+        <v>0.2204355115556176</v>
       </c>
       <c r="K10">
-        <v>1.405558976599622</v>
+        <v>0.5833888419926154</v>
       </c>
       <c r="L10">
-        <v>0.3412759952227304</v>
+        <v>0.351273097394639</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.874946063651949</v>
+        <v>2.129658820328546</v>
       </c>
       <c r="O10">
-        <v>2.409912769569019</v>
+        <v>4.830718478016479</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.911641231807693</v>
+        <v>1.094489421091566</v>
       </c>
       <c r="C11">
-        <v>0.1025969481499232</v>
+        <v>0.1381702638518263</v>
       </c>
       <c r="D11">
-        <v>0.1554250705836466</v>
+        <v>0.163515456653343</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.028627936609084</v>
+        <v>1.888644727037502</v>
       </c>
       <c r="G11">
-        <v>0.000809358449850968</v>
+        <v>0.002495142144328953</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.094866735858119</v>
+        <v>0.2199628878388467</v>
       </c>
       <c r="K11">
-        <v>1.50821142885701</v>
+        <v>0.6122042051141818</v>
       </c>
       <c r="L11">
-        <v>0.3622894276916497</v>
+        <v>0.3559282106799913</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8427553985699578</v>
+        <v>2.116035643752155</v>
       </c>
       <c r="O11">
-        <v>2.4520118087257</v>
+        <v>4.821899726791088</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.959895691160739</v>
+        <v>1.107194141124012</v>
       </c>
       <c r="C12">
-        <v>0.1031279963674123</v>
+        <v>0.1383430003959703</v>
       </c>
       <c r="D12">
-        <v>0.1587944889587902</v>
+        <v>0.1642761080612161</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.03833863224645</v>
+        <v>1.888376125124864</v>
       </c>
       <c r="G12">
-        <v>0.00080834852591032</v>
+        <v>0.002494530755271285</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09527461425975048</v>
+        <v>0.2197949766366598</v>
       </c>
       <c r="K12">
-        <v>1.547192125402773</v>
+        <v>0.6231321750182417</v>
       </c>
       <c r="L12">
-        <v>0.3702965917930072</v>
+        <v>0.3577104456583697</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8307826244380463</v>
+        <v>2.110971593708496</v>
       </c>
       <c r="O12">
-        <v>2.468734687585766</v>
+        <v>4.818874192504381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.949494821020778</v>
+        <v>1.104455759757059</v>
       </c>
       <c r="C13">
-        <v>0.1030135070689511</v>
+        <v>0.1383057818947293</v>
       </c>
       <c r="D13">
-        <v>0.1580680318973577</v>
+        <v>0.1641119276587517</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.036233928080193</v>
+        <v>1.888428614489825</v>
       </c>
       <c r="G13">
-        <v>0.0008085655985991731</v>
+        <v>0.002494661891636437</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09518578511154274</v>
+        <v>0.2198306477976928</v>
       </c>
       <c r="K13">
-        <v>1.538791848357903</v>
+        <v>0.6207779293614237</v>
       </c>
       <c r="L13">
-        <v>0.3685698161921067</v>
+        <v>0.3573257470126379</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8333513757240389</v>
+        <v>2.112058013199761</v>
       </c>
       <c r="O13">
-        <v>2.465097562323876</v>
+        <v>4.819511838332744</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.915607398600827</v>
+        <v>1.095533656865229</v>
       </c>
       <c r="C14">
-        <v>0.1026405846923737</v>
+        <v>0.1381844674884078</v>
       </c>
       <c r="D14">
-        <v>0.1557019196811353</v>
+        <v>0.1635778733361946</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.029420862330596</v>
+        <v>1.888620213882973</v>
       </c>
       <c r="G14">
-        <v>0.0008092751673517361</v>
+        <v>0.002495091602835175</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09489984997097878</v>
+        <v>0.2199488521550634</v>
       </c>
       <c r="K14">
-        <v>1.511416126394408</v>
+        <v>0.6131029341585474</v>
       </c>
       <c r="L14">
-        <v>0.3629471569234255</v>
+        <v>0.3560744473702471</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8417659883652773</v>
+        <v>2.115617122277958</v>
       </c>
       <c r="O14">
-        <v>2.45337166447419</v>
+        <v>4.821644524419639</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.894874615105863</v>
+        <v>1.090075045031966</v>
       </c>
       <c r="C15">
-        <v>0.1024125024818048</v>
+        <v>0.1381102077943623</v>
       </c>
       <c r="D15">
-        <v>0.1542549031304503</v>
+        <v>0.1632518065832187</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.025286365855365</v>
+        <v>1.888753268991351</v>
       </c>
       <c r="G15">
-        <v>0.0008097110720009174</v>
+        <v>0.002495356387490213</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09472757171301538</v>
+        <v>0.2200226954283693</v>
       </c>
       <c r="K15">
-        <v>1.494662316509107</v>
+        <v>0.6084038723286938</v>
       </c>
       <c r="L15">
-        <v>0.3595097410955646</v>
+        <v>0.3553105180923666</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8469487231879489</v>
+        <v>2.117809519141558</v>
       </c>
       <c r="O15">
-        <v>2.446292433947661</v>
+        <v>4.822991730101251</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.776418503258554</v>
+        <v>1.05889315885355</v>
       </c>
       <c r="C16">
-        <v>0.1011105638285343</v>
+        <v>0.1376854174838087</v>
       </c>
       <c r="D16">
-        <v>0.1459967335854202</v>
+        <v>0.1613995076339592</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.002171962368038</v>
+        <v>1.889756468293655</v>
       </c>
       <c r="G16">
-        <v>0.0008122288928236633</v>
+        <v>0.002496897928486673</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09378338249298324</v>
+        <v>0.220467947934015</v>
       </c>
       <c r="K16">
-        <v>1.398864686496779</v>
+        <v>0.5815079919482855</v>
       </c>
       <c r="L16">
-        <v>0.3399094452912976</v>
+        <v>0.3509716038168307</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.877079703271745</v>
+        <v>2.130562385360406</v>
       </c>
       <c r="O16">
-        <v>2.40726800135738</v>
+        <v>4.831338752821353</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.704048908131625</v>
+        <v>1.039853260554622</v>
       </c>
       <c r="C17">
-        <v>0.1003162600041492</v>
+        <v>0.1374255161716462</v>
       </c>
       <c r="D17">
-        <v>0.1409598851082592</v>
+        <v>0.1602777521586489</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9884930478925895</v>
+        <v>1.890586859073508</v>
       </c>
       <c r="G17">
-        <v>0.0008137915156150206</v>
+        <v>0.002497865223709285</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09324168107739439</v>
+        <v>0.2207608259240779</v>
       </c>
       <c r="K17">
-        <v>1.340271842943224</v>
+        <v>0.5650377605573453</v>
       </c>
       <c r="L17">
-        <v>0.3279692619845349</v>
+        <v>0.3483446115281623</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8959414583931569</v>
+        <v>2.138554607175196</v>
       </c>
       <c r="O17">
-        <v>2.38466464711783</v>
+        <v>4.837018892867576</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.662527111542857</v>
+        <v>1.028935045483962</v>
       </c>
       <c r="C18">
-        <v>0.09986094891821296</v>
+        <v>0.137276288283033</v>
       </c>
       <c r="D18">
-        <v>0.1380731330810647</v>
+        <v>0.1596379273807429</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.980803471164208</v>
+        <v>1.891143541234598</v>
       </c>
       <c r="G18">
-        <v>0.0008146970454000185</v>
+        <v>0.002498429545450476</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09294355092474049</v>
+        <v>0.2209365409423825</v>
       </c>
       <c r="K18">
-        <v>1.306630417302529</v>
+        <v>0.5555755582950894</v>
       </c>
       <c r="L18">
-        <v>0.3211310433236321</v>
+        <v>0.3468464680247934</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9069261945229803</v>
+        <v>2.143213534008598</v>
       </c>
       <c r="O18">
-        <v>2.37213936276919</v>
+        <v>4.840491684164931</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.648485659307568</v>
+        <v>1.025244022999345</v>
       </c>
       <c r="C19">
-        <v>0.0997070490937304</v>
+        <v>0.1372258075432597</v>
       </c>
       <c r="D19">
-        <v>0.1370974577682347</v>
+        <v>0.1594222199655349</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9782299627939608</v>
+        <v>1.891345609725917</v>
       </c>
       <c r="G19">
-        <v>0.0008150048135814397</v>
+        <v>0.00249862198382766</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09284488551049108</v>
+        <v>0.2209972826480282</v>
       </c>
       <c r="K19">
-        <v>1.295249786388638</v>
+        <v>0.552373733270116</v>
       </c>
       <c r="L19">
-        <v>0.3188206702263017</v>
+        <v>0.3463414309436104</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9106685345980923</v>
+        <v>2.144801616960087</v>
       </c>
       <c r="O19">
-        <v>2.367978739503599</v>
+        <v>4.841702855180472</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.7117419366555</v>
+        <v>1.041876677477802</v>
       </c>
       <c r="C20">
-        <v>0.1004006530453339</v>
+        <v>0.1374531562778856</v>
       </c>
       <c r="D20">
-        <v>0.1414949892732267</v>
+        <v>0.1603966087686644</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9899306196028022</v>
+        <v>1.890490281286787</v>
       </c>
       <c r="G20">
-        <v>0.000813624475885928</v>
+        <v>0.002497761430079198</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09329794716171946</v>
+        <v>0.220728897441699</v>
       </c>
       <c r="K20">
-        <v>1.346502868946772</v>
+        <v>0.5667899065877577</v>
       </c>
       <c r="L20">
-        <v>0.3292372350418304</v>
+        <v>0.3486229322452914</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8939194611900003</v>
+        <v>2.137697403413187</v>
       </c>
       <c r="O20">
-        <v>2.387021244989029</v>
+        <v>4.836392942891337</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.925555864145792</v>
+        <v>1.098152955393033</v>
       </c>
       <c r="C21">
-        <v>0.1027500490626707</v>
+        <v>0.1382200903139648</v>
       </c>
       <c r="D21">
-        <v>0.1563964231761616</v>
+        <v>0.1637345179094467</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.031413924034069</v>
+        <v>1.888560666050765</v>
       </c>
       <c r="G21">
-        <v>0.0008090664851544908</v>
+        <v>0.002494965058140368</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09498323687191856</v>
+        <v>0.2199138326871157</v>
       </c>
       <c r="K21">
-        <v>1.519453964966488</v>
+        <v>0.6153568308951378</v>
       </c>
       <c r="L21">
-        <v>0.3645972792660643</v>
+        <v>0.3564414578620756</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8392884484858545</v>
+        <v>2.114569154044109</v>
       </c>
       <c r="O21">
-        <v>2.456794240793556</v>
+        <v>4.821009585328881</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.06636219558186</v>
+        <v>1.135221412166175</v>
       </c>
       <c r="C22">
-        <v>0.1043007169900392</v>
+        <v>0.1387235287336779</v>
       </c>
       <c r="D22">
-        <v>0.1662368942240988</v>
+        <v>0.1659634075947878</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.060241687316392</v>
+        <v>1.888002197392836</v>
       </c>
       <c r="G22">
-        <v>0.0008061449173028347</v>
+        <v>0.002493207968108554</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09621196177084101</v>
+        <v>0.2194456011615458</v>
       </c>
       <c r="K22">
-        <v>1.633127735446578</v>
+        <v>0.647192374386691</v>
       </c>
       <c r="L22">
-        <v>0.3879998348350142</v>
+        <v>0.3616645858697183</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8048539325130042</v>
+        <v>2.100005796080551</v>
       </c>
       <c r="O22">
-        <v>2.506971931398596</v>
+        <v>4.812785375203191</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.99110620495037</v>
+        <v>1.115411132467329</v>
       </c>
       <c r="C23">
-        <v>0.1034716343711608</v>
+        <v>0.1384546382623455</v>
       </c>
       <c r="D23">
-        <v>0.1609750718797471</v>
+        <v>0.1647694981845262</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.04469223457609</v>
+        <v>1.888236038320258</v>
       </c>
       <c r="G23">
-        <v>0.0008076991050748525</v>
+        <v>0.00249413932738141</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09554413936415784</v>
+        <v>0.2196896158544632</v>
       </c>
       <c r="K23">
-        <v>1.572393805460109</v>
+        <v>0.630192717946386</v>
       </c>
       <c r="L23">
-        <v>0.3754811352218894</v>
+        <v>0.3588665887298106</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8231130884482996</v>
+        <v>2.107727995372398</v>
       </c>
       <c r="O23">
-        <v>2.47975512064761</v>
+        <v>4.817007481800715</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.708263657013049</v>
+        <v>1.040961803171712</v>
       </c>
       <c r="C24">
-        <v>0.1003624947776132</v>
+        <v>0.1374406595852236</v>
       </c>
       <c r="D24">
-        <v>0.1412530407550463</v>
+        <v>0.1603428578438297</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9892801509531779</v>
+        <v>1.89053369713821</v>
       </c>
       <c r="G24">
-        <v>0.0008136999722873598</v>
+        <v>0.002497808329500603</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09327246791702137</v>
+        <v>0.2207433094575357</v>
       </c>
       <c r="K24">
-        <v>1.343685685036007</v>
+        <v>0.5659977402875143</v>
       </c>
       <c r="L24">
-        <v>0.3286639026719484</v>
+        <v>0.34849706559514</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8948331680158823</v>
+        <v>2.138084745588906</v>
       </c>
       <c r="O24">
-        <v>2.385954367833619</v>
+        <v>4.836675289422573</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.407045831876218</v>
+        <v>0.9619219090360502</v>
       </c>
       <c r="C25">
-        <v>0.09706743544924734</v>
+        <v>0.1363569435752723</v>
       </c>
       <c r="D25">
-        <v>0.1203687751322065</v>
+        <v>0.1557739632100521</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9362551749002108</v>
+        <v>1.896035631115055</v>
       </c>
       <c r="G25">
-        <v>0.000820432419268172</v>
+        <v>0.002502070476528096</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09133213659371364</v>
+        <v>0.2221575365908031</v>
       </c>
       <c r="K25">
-        <v>1.099211093740507</v>
+        <v>0.4971772499131077</v>
       </c>
       <c r="L25">
-        <v>0.2792746328326245</v>
+        <v>0.3378030318879723</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9773626930081765</v>
+        <v>2.173200326689597</v>
       </c>
       <c r="O25">
-        <v>2.302783090488617</v>
+        <v>4.865756760904162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_165/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_165/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9048283336185818</v>
+        <v>1.187822166233161</v>
       </c>
       <c r="C2">
-        <v>0.1355680638631682</v>
+        <v>0.09468464424736567</v>
       </c>
       <c r="D2">
-        <v>0.1525889375752456</v>
+        <v>0.1052748828831085</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.902693688906858</v>
+        <v>0.9023686371519375</v>
       </c>
       <c r="G2">
-        <v>0.002505473217499012</v>
+        <v>0.0008256274652017091</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2234386864452205</v>
+        <v>0.0903042565809038</v>
       </c>
       <c r="K2">
-        <v>0.4468790527791953</v>
+        <v>0.9205440397027189</v>
       </c>
       <c r="L2">
-        <v>0.3303546847548375</v>
+        <v>0.2437069475818987</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.201099405360304</v>
+        <v>1.042294563978269</v>
       </c>
       <c r="O2">
-        <v>4.893947308165821</v>
+        <v>2.255335875690832</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8668321265355701</v>
+        <v>1.040499442938511</v>
       </c>
       <c r="C3">
-        <v>0.1350393194915753</v>
+        <v>0.09309373857475123</v>
       </c>
       <c r="D3">
-        <v>0.1505431398048316</v>
+        <v>0.09519853877223028</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.908835776594373</v>
+        <v>0.8823222109360884</v>
       </c>
       <c r="G3">
-        <v>0.00250794563295973</v>
+        <v>0.0008293035271008753</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2244571156854427</v>
+        <v>0.08984019537931331</v>
       </c>
       <c r="K3">
-        <v>0.4130303882693624</v>
+        <v>0.8000337181709654</v>
       </c>
       <c r="L3">
-        <v>0.3255741744138874</v>
+        <v>0.2200275533044902</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.221283881089278</v>
+        <v>1.088769549963134</v>
       </c>
       <c r="O3">
-        <v>4.917287170159483</v>
+        <v>2.231004149661345</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8438494580375391</v>
+        <v>0.950551833352705</v>
       </c>
       <c r="C4">
-        <v>0.1347176615995629</v>
+        <v>0.09212782157445787</v>
       </c>
       <c r="D4">
-        <v>0.1493430115258221</v>
+        <v>0.08907986248988209</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.913412334772815</v>
+        <v>0.8713618464480817</v>
       </c>
       <c r="G4">
-        <v>0.00250954619230731</v>
+        <v>0.0008316393970845271</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2251567073599006</v>
+        <v>0.08966457546726758</v>
       </c>
       <c r="K4">
-        <v>0.3923674299748541</v>
+        <v>0.7262444124101535</v>
       </c>
       <c r="L4">
-        <v>0.3227714864182047</v>
+        <v>0.2056760227300884</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.234307760467949</v>
+        <v>1.118483720604766</v>
       </c>
       <c r="O4">
-        <v>4.933709342383509</v>
+        <v>2.219683451805793</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8345718804397109</v>
+        <v>0.9140112183817166</v>
       </c>
       <c r="C5">
-        <v>0.1345873525378316</v>
+        <v>0.09173682941601413</v>
       </c>
       <c r="D5">
-        <v>0.1488681060762715</v>
+        <v>0.08660264326018563</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.915480059843929</v>
+        <v>0.8672216228089837</v>
       </c>
       <c r="G5">
-        <v>0.002510219235759086</v>
+        <v>0.0008326113819572442</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2254605035722577</v>
+        <v>0.08961974112638771</v>
       </c>
       <c r="K5">
-        <v>0.3839778903645765</v>
+        <v>0.6962155870193811</v>
       </c>
       <c r="L5">
-        <v>0.3216628456813027</v>
+        <v>0.1998718657677045</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.239773701771396</v>
+        <v>1.130882981243587</v>
       </c>
       <c r="O5">
-        <v>4.94092785882394</v>
+        <v>2.215946519088533</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8330366856419289</v>
+        <v>0.9079501454198464</v>
       </c>
       <c r="C6">
-        <v>0.134565761756285</v>
+        <v>0.09167206092295999</v>
       </c>
       <c r="D6">
-        <v>0.1487901056145731</v>
+        <v>0.08619225336325798</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.915835656207335</v>
+        <v>0.8665534809287792</v>
       </c>
       <c r="G6">
-        <v>0.002510332252328501</v>
+        <v>0.0008327740017616752</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2255120794557897</v>
+        <v>0.0896138895075147</v>
       </c>
       <c r="K6">
-        <v>0.3825866889657448</v>
+        <v>0.6912314980400822</v>
       </c>
       <c r="L6">
-        <v>0.3214807828869297</v>
+        <v>0.1989106752286816</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.24069089808975</v>
+        <v>1.132959249458853</v>
       </c>
       <c r="O6">
-        <v>4.942158291302974</v>
+        <v>2.215377977190315</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8437239798888356</v>
+        <v>0.9500585915235149</v>
       </c>
       <c r="C7">
-        <v>0.1347159010693701</v>
+        <v>0.09212253802751746</v>
       </c>
       <c r="D7">
-        <v>0.1493365493650529</v>
+        <v>0.08904638953448085</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.913439399625389</v>
+        <v>0.8713047056140155</v>
       </c>
       <c r="G7">
-        <v>0.002509555184877985</v>
+        <v>0.0008316524237696909</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2251607286774657</v>
+        <v>0.08966386355231393</v>
       </c>
       <c r="K7">
-        <v>0.3922541603471359</v>
+        <v>0.7258392809940233</v>
       </c>
       <c r="L7">
-        <v>0.3227563991628841</v>
+        <v>0.2055975706935342</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.234380833809312</v>
+        <v>1.118649772638626</v>
       </c>
       <c r="O7">
-        <v>4.933804562066015</v>
+        <v>2.21962954934304</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8916556263171174</v>
+        <v>1.13691076592886</v>
       </c>
       <c r="C8">
-        <v>0.135385141215238</v>
+        <v>0.09413376368258497</v>
       </c>
       <c r="D8">
-        <v>0.1518719677800817</v>
+        <v>0.1017857961118622</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.904644485968369</v>
+        <v>0.8951689071574265</v>
       </c>
       <c r="G8">
-        <v>0.002506308622634304</v>
+        <v>0.0008268788081593406</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2237744439504965</v>
+        <v>0.09012109388534029</v>
       </c>
       <c r="K8">
-        <v>0.4351833888030114</v>
+        <v>0.8789430978141297</v>
       </c>
       <c r="L8">
-        <v>0.3286789345736452</v>
+        <v>0.235501478691404</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.207928179819423</v>
+        <v>1.058071003621575</v>
       </c>
       <c r="O8">
-        <v>4.901561086116942</v>
+        <v>2.246174373212369</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9883763353728625</v>
+        <v>1.508064554218919</v>
       </c>
       <c r="C9">
-        <v>0.1367206189942181</v>
+        <v>0.0981702045790982</v>
       </c>
       <c r="D9">
-        <v>0.1572853265539891</v>
+        <v>0.1273563991868656</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.893777787850354</v>
+        <v>0.9532744640102351</v>
       </c>
       <c r="G9">
-        <v>0.002500593846905722</v>
+        <v>0.0008181285673218139</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2216439648287185</v>
+        <v>0.09192105407058548</v>
       </c>
       <c r="K9">
-        <v>0.5203021391653522</v>
+        <v>1.181318285457792</v>
       </c>
       <c r="L9">
-        <v>0.3413394481077887</v>
+        <v>0.2957775345136326</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.161054420375386</v>
+        <v>0.9488974726303621</v>
       </c>
       <c r="O9">
-        <v>4.854908595343574</v>
+        <v>2.328548478241913</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.061070200840447</v>
+        <v>1.784690855718026</v>
       </c>
       <c r="C10">
-        <v>0.1377151089274093</v>
+        <v>0.1012014141511557</v>
       </c>
       <c r="D10">
-        <v>0.1615282348475517</v>
+        <v>0.1465729021372937</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.889672423477563</v>
+        <v>1.003757391336421</v>
       </c>
       <c r="G10">
-        <v>0.002496788630525896</v>
+        <v>0.0008120514922092618</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2204355115556176</v>
+        <v>0.09384704089709572</v>
       </c>
       <c r="K10">
-        <v>0.5833888419926154</v>
+        <v>1.40555897659965</v>
       </c>
       <c r="L10">
-        <v>0.351273097394639</v>
+        <v>0.3412759952227589</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.129658820328546</v>
+        <v>0.8749460636519437</v>
       </c>
       <c r="O10">
-        <v>4.830718478016479</v>
+        <v>2.409912769569019</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.094489421091566</v>
+        <v>1.911641231807693</v>
       </c>
       <c r="C11">
-        <v>0.1381702638518263</v>
+        <v>0.102596948149916</v>
       </c>
       <c r="D11">
-        <v>0.163515456653343</v>
+        <v>0.1554250705835329</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.888644727037502</v>
+        <v>1.02862793660907</v>
       </c>
       <c r="G11">
-        <v>0.002495142144328953</v>
+        <v>0.0008093584498227684</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2199628878388467</v>
+        <v>0.09486673585806571</v>
       </c>
       <c r="K11">
-        <v>0.6122042051141818</v>
+        <v>1.508211428856868</v>
       </c>
       <c r="L11">
-        <v>0.3559282106799913</v>
+        <v>0.3622894276916213</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.116035643752155</v>
+        <v>0.8427553985699383</v>
       </c>
       <c r="O11">
-        <v>4.821899726791088</v>
+        <v>2.4520118087257</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.107194141124012</v>
+        <v>1.959895691161023</v>
       </c>
       <c r="C12">
-        <v>0.1383430003959703</v>
+        <v>0.1031279963678742</v>
       </c>
       <c r="D12">
-        <v>0.1642761080612161</v>
+        <v>0.1587944889589608</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.888376125124864</v>
+        <v>1.038338632246464</v>
       </c>
       <c r="G12">
-        <v>0.002494530755271285</v>
+        <v>0.0008083485258793456</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2197949766366598</v>
+        <v>0.09527461425978956</v>
       </c>
       <c r="K12">
-        <v>0.6231321750182417</v>
+        <v>1.547192125402773</v>
       </c>
       <c r="L12">
-        <v>0.3577104456583697</v>
+        <v>0.3702965917930356</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.110971593708496</v>
+        <v>0.8307826244380507</v>
       </c>
       <c r="O12">
-        <v>4.818874192504381</v>
+        <v>2.468734687585766</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.104455759757059</v>
+        <v>1.949494821020494</v>
       </c>
       <c r="C13">
-        <v>0.1383057818947293</v>
+        <v>0.103013507068475</v>
       </c>
       <c r="D13">
-        <v>0.1641119276587517</v>
+        <v>0.1580680318975425</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.888428614489825</v>
+        <v>1.036233928080208</v>
       </c>
       <c r="G13">
-        <v>0.002494661891636437</v>
+        <v>0.000808565598629354</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2198306477976928</v>
+        <v>0.09518578511153564</v>
       </c>
       <c r="K13">
-        <v>0.6207779293614237</v>
+        <v>1.538791848357846</v>
       </c>
       <c r="L13">
-        <v>0.3573257470126379</v>
+        <v>0.3685698161921778</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.112058013199761</v>
+        <v>0.8333513757240167</v>
       </c>
       <c r="O13">
-        <v>4.819511838332744</v>
+        <v>2.465097562323763</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.095533656865229</v>
+        <v>1.915607398600798</v>
       </c>
       <c r="C14">
-        <v>0.1381844674884078</v>
+        <v>0.102640584692459</v>
       </c>
       <c r="D14">
-        <v>0.1635778733361946</v>
+        <v>0.1557019196810501</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.888620213882973</v>
+        <v>1.029420862330582</v>
       </c>
       <c r="G14">
-        <v>0.002495091602835175</v>
+        <v>0.0008092751673799581</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2199488521550634</v>
+        <v>0.09489984997092904</v>
       </c>
       <c r="K14">
-        <v>0.6131029341585474</v>
+        <v>1.511416126394323</v>
       </c>
       <c r="L14">
-        <v>0.3560744473702471</v>
+        <v>0.3629471569234255</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.115617122277958</v>
+        <v>0.8417659883653235</v>
       </c>
       <c r="O14">
-        <v>4.821644524419639</v>
+        <v>2.453371664474162</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.090075045031966</v>
+        <v>1.894874615105948</v>
       </c>
       <c r="C15">
-        <v>0.1381102077943623</v>
+        <v>0.1024125024821529</v>
       </c>
       <c r="D15">
-        <v>0.1632518065832187</v>
+        <v>0.154254903130564</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.888753268991351</v>
+        <v>1.025286365855322</v>
       </c>
       <c r="G15">
-        <v>0.002495356387490213</v>
+        <v>0.0008097110720012533</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2200226954283693</v>
+        <v>0.09472757171307933</v>
       </c>
       <c r="K15">
-        <v>0.6084038723286938</v>
+        <v>1.494662316509192</v>
       </c>
       <c r="L15">
-        <v>0.3553105180923666</v>
+        <v>0.359509741095593</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.117809519141558</v>
+        <v>0.8469487231879196</v>
       </c>
       <c r="O15">
-        <v>4.822991730101251</v>
+        <v>2.446292433947661</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05889315885355</v>
+        <v>1.776418503258554</v>
       </c>
       <c r="C16">
-        <v>0.1376854174838087</v>
+        <v>0.1011105638288754</v>
       </c>
       <c r="D16">
-        <v>0.1613995076339592</v>
+        <v>0.1459967335856618</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.889756468293655</v>
+        <v>1.002171962368024</v>
       </c>
       <c r="G16">
-        <v>0.002496897928486673</v>
+        <v>0.0008122288927653119</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.220467947934015</v>
+        <v>0.09378338249295126</v>
       </c>
       <c r="K16">
-        <v>0.5815079919482855</v>
+        <v>1.398864686496665</v>
       </c>
       <c r="L16">
-        <v>0.3509716038168307</v>
+        <v>0.3399094452913545</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.130562385360406</v>
+        <v>0.8770797032717432</v>
       </c>
       <c r="O16">
-        <v>4.831338752821353</v>
+        <v>2.407268001357352</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.039853260554622</v>
+        <v>1.704048908131654</v>
       </c>
       <c r="C17">
-        <v>0.1374255161716462</v>
+        <v>0.1003162600045115</v>
       </c>
       <c r="D17">
-        <v>0.1602777521586489</v>
+        <v>0.1409598851083018</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.890586859073508</v>
+        <v>0.9884930478926037</v>
       </c>
       <c r="G17">
-        <v>0.002497865223709285</v>
+        <v>0.0008137915156154647</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2207608259240779</v>
+        <v>0.09324168107731268</v>
       </c>
       <c r="K17">
-        <v>0.5650377605573453</v>
+        <v>1.340271842943338</v>
       </c>
       <c r="L17">
-        <v>0.3483446115281623</v>
+        <v>0.3279692619845207</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.138554607175196</v>
+        <v>0.8959414583931</v>
       </c>
       <c r="O17">
-        <v>4.837018892867576</v>
+        <v>2.384664647117859</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.028935045483962</v>
+        <v>1.662527111542857</v>
       </c>
       <c r="C18">
-        <v>0.137276288283033</v>
+        <v>0.09986094891808506</v>
       </c>
       <c r="D18">
-        <v>0.1596379273807429</v>
+        <v>0.1380731330808942</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.891143541234598</v>
+        <v>0.9808034711642222</v>
       </c>
       <c r="G18">
-        <v>0.002498429545450476</v>
+        <v>0.0008146970454829271</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2209365409423825</v>
+        <v>0.09294355092478312</v>
       </c>
       <c r="K18">
-        <v>0.5555755582950894</v>
+        <v>1.306630417302529</v>
       </c>
       <c r="L18">
-        <v>0.3468464680247934</v>
+        <v>0.3211310433236889</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.143213534008598</v>
+        <v>0.9069261945229865</v>
       </c>
       <c r="O18">
-        <v>4.840491684164931</v>
+        <v>2.37213936276919</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.025244022999345</v>
+        <v>1.648485659307738</v>
       </c>
       <c r="C19">
-        <v>0.1372258075432597</v>
+        <v>0.0997070490937233</v>
       </c>
       <c r="D19">
-        <v>0.1594222199655349</v>
+        <v>0.1370974577684194</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.891345609725917</v>
+        <v>0.9782299627939466</v>
       </c>
       <c r="G19">
-        <v>0.00249862198382766</v>
+        <v>0.0008150048135270316</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2209972826480282</v>
+        <v>0.09284488551053016</v>
       </c>
       <c r="K19">
-        <v>0.552373733270116</v>
+        <v>1.295249786388723</v>
       </c>
       <c r="L19">
-        <v>0.3463414309436104</v>
+        <v>0.3188206702262733</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.144801616960087</v>
+        <v>0.9106685345980923</v>
       </c>
       <c r="O19">
-        <v>4.841702855180472</v>
+        <v>2.367978739503656</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.041876677477802</v>
+        <v>1.711741936655528</v>
       </c>
       <c r="C20">
-        <v>0.1374531562778856</v>
+        <v>0.1004006530453267</v>
       </c>
       <c r="D20">
-        <v>0.1603966087686644</v>
+        <v>0.1414949892734541</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.890490281286787</v>
+        <v>0.9899306196027879</v>
       </c>
       <c r="G20">
-        <v>0.002497761430079198</v>
+        <v>0.0008136244759124616</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.220728897441699</v>
+        <v>0.09329794716173723</v>
       </c>
       <c r="K20">
-        <v>0.5667899065877577</v>
+        <v>1.346502868946743</v>
       </c>
       <c r="L20">
-        <v>0.3486229322452914</v>
+        <v>0.3292372350417736</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.137697403413187</v>
+        <v>0.8939194611899195</v>
       </c>
       <c r="O20">
-        <v>4.836392942891337</v>
+        <v>2.387021244989143</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.098152955393033</v>
+        <v>1.925555864145736</v>
       </c>
       <c r="C21">
-        <v>0.1382200903139648</v>
+        <v>0.1027500490629123</v>
       </c>
       <c r="D21">
-        <v>0.1637345179094467</v>
+        <v>0.1563964231761332</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.888560666050765</v>
+        <v>1.031413924034069</v>
       </c>
       <c r="G21">
-        <v>0.002494965058140368</v>
+        <v>0.0008090664851538738</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2199138326871157</v>
+        <v>0.09498323687192212</v>
       </c>
       <c r="K21">
-        <v>0.6153568308951378</v>
+        <v>1.519453964966488</v>
       </c>
       <c r="L21">
-        <v>0.3564414578620756</v>
+        <v>0.3645972792660643</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.114569154044109</v>
+        <v>0.8392884484858509</v>
       </c>
       <c r="O21">
-        <v>4.821009585328881</v>
+        <v>2.456794240793556</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.135221412166175</v>
+        <v>2.06636219558186</v>
       </c>
       <c r="C22">
-        <v>0.1387235287336779</v>
+        <v>0.1043007169897052</v>
       </c>
       <c r="D22">
-        <v>0.1659634075947878</v>
+        <v>0.1662368942240846</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.888002197392836</v>
+        <v>1.060241687316363</v>
       </c>
       <c r="G22">
-        <v>0.002493207968108554</v>
+        <v>0.0008061449173024504</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2194456011615458</v>
+        <v>0.09621196177086944</v>
       </c>
       <c r="K22">
-        <v>0.647192374386691</v>
+        <v>1.633127735446436</v>
       </c>
       <c r="L22">
-        <v>0.3616645858697183</v>
+        <v>0.387999834835</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.100005796080551</v>
+        <v>0.8048539325129873</v>
       </c>
       <c r="O22">
-        <v>4.812785375203191</v>
+        <v>2.506971931398567</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.115411132467329</v>
+        <v>1.991106204950313</v>
       </c>
       <c r="C23">
-        <v>0.1384546382623455</v>
+        <v>0.1034716343706847</v>
       </c>
       <c r="D23">
-        <v>0.1647694981845262</v>
+        <v>0.1609750718796192</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.888236038320258</v>
+        <v>1.04469223457609</v>
       </c>
       <c r="G23">
-        <v>0.00249413932738141</v>
+        <v>0.0008076991050171531</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2196896158544632</v>
+        <v>0.09554413936419337</v>
       </c>
       <c r="K23">
-        <v>0.630192717946386</v>
+        <v>1.572393805460109</v>
       </c>
       <c r="L23">
-        <v>0.3588665887298106</v>
+        <v>0.3754811352219889</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.107727995372398</v>
+        <v>0.8231130884482978</v>
       </c>
       <c r="O23">
-        <v>4.817007481800715</v>
+        <v>2.479755120647553</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.040961803171712</v>
+        <v>1.708263657013134</v>
       </c>
       <c r="C24">
-        <v>0.1374406595852236</v>
+        <v>0.1003624947772437</v>
       </c>
       <c r="D24">
-        <v>0.1603428578438297</v>
+        <v>0.1412530407549895</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.89053369713821</v>
+        <v>0.9892801509531637</v>
       </c>
       <c r="G24">
-        <v>0.002497808329500603</v>
+        <v>0.0008136999722026528</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2207433094575357</v>
+        <v>0.09327246791709243</v>
       </c>
       <c r="K24">
-        <v>0.5659977402875143</v>
+        <v>1.343685685035865</v>
       </c>
       <c r="L24">
-        <v>0.34849706559514</v>
+        <v>0.3286639026718774</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.138084745588906</v>
+        <v>0.8948331680159534</v>
       </c>
       <c r="O24">
-        <v>4.836675289422573</v>
+        <v>2.385954367833619</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9619219090360502</v>
+        <v>1.407045831876388</v>
       </c>
       <c r="C25">
-        <v>0.1363569435752723</v>
+        <v>0.09706743544933971</v>
       </c>
       <c r="D25">
-        <v>0.1557739632100521</v>
+        <v>0.1203687751322491</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.896035631115055</v>
+        <v>0.9362551749002037</v>
       </c>
       <c r="G25">
-        <v>0.002502070476528096</v>
+        <v>0.0008204324193211974</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2221575365908031</v>
+        <v>0.09133213659382022</v>
       </c>
       <c r="K25">
-        <v>0.4971772499131077</v>
+        <v>1.099211093740536</v>
       </c>
       <c r="L25">
-        <v>0.3378030318879723</v>
+        <v>0.2792746328326814</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.173200326689597</v>
+        <v>0.9773626930081667</v>
       </c>
       <c r="O25">
-        <v>4.865756760904162</v>
+        <v>2.302783090488646</v>
       </c>
     </row>
   </sheetData>
